--- a/queries/execution_reports/Сводная таблица.xlsx
+++ b/queries/execution_reports/Сводная таблица.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\db_kinopoisk\queries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\db_kinopoisk\queries\execution_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54643611-46C8-4311-8670-BBA6DE553F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B802A0-B7ED-4461-BB4A-EB2AAFDF1B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2BB7769B-1ACA-444F-9A3F-4C6D44EF974F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2BB7769B-1ACA-444F-9A3F-4C6D44EF974F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
-  <si>
-    <t>query</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>best</t>
   </si>
@@ -50,35 +47,44 @@
     <t>worst</t>
   </si>
   <si>
-    <t>query1</t>
+    <t>с индексами</t>
   </si>
   <si>
-    <t>query2</t>
+    <t>с 5-ю партициями</t>
   </si>
   <si>
-    <t>query3</t>
+    <t>с 3-мя партициями</t>
   </si>
   <si>
-    <t>query4</t>
+    <t>с 10-ю партициями</t>
   </si>
   <si>
-    <t>query5</t>
+    <t>изменение</t>
   </si>
   <si>
-    <t>до</t>
+    <t>изначально</t>
   </si>
   <si>
-    <t>после</t>
+    <t>query 1</t>
   </si>
   <si>
-    <t>улучшение</t>
+    <t>query 2</t>
+  </si>
+  <si>
+    <t>query 3</t>
+  </si>
+  <si>
+    <t>query 4</t>
+  </si>
+  <si>
+    <t>query 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +109,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -136,37 +149,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -176,9 +167,150 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -186,43 +318,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -559,322 +718,640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0E6A88-D782-4348-8945-FC31222C570E}">
-  <dimension ref="B1:J17"/>
+  <dimension ref="B1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="17"/>
+      <c r="C2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16"/>
+    </row>
+    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="18"/>
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4172.3649999999998</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4499.3950000000004</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4790.6170000000002</v>
+      </c>
+      <c r="F4" s="7">
+        <v>3901.7109999999998</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5694.7560000000003</v>
+      </c>
+      <c r="H4" s="8">
+        <v>9066.9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10610.735000000001</v>
+      </c>
+      <c r="J4" s="3">
+        <v>10741.638000000001</v>
+      </c>
+      <c r="K4" s="8">
+        <v>10924.022000000001</v>
+      </c>
+      <c r="L4" s="7">
+        <v>6784.7910000000002</v>
+      </c>
+      <c r="M4" s="3">
+        <v>6933.6369999999997</v>
+      </c>
+      <c r="N4" s="8">
+        <v>7010.8419999999996</v>
+      </c>
+      <c r="O4" s="7">
+        <v>11411.413</v>
+      </c>
+      <c r="P4" s="3">
+        <v>11625.3</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>11881.128000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="C5" s="7">
+        <v>1017.6319999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1683.7909999999999</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3008.0010000000002</v>
+      </c>
+      <c r="F5" s="7">
+        <v>14.279</v>
+      </c>
+      <c r="G5" s="3">
+        <v>349.31799999999998</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1019.303</v>
+      </c>
+      <c r="I5" s="7">
+        <v>10312.281000000001</v>
+      </c>
+      <c r="J5" s="3">
+        <v>10725.279</v>
+      </c>
+      <c r="K5" s="8">
+        <v>11024.413</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1871.7439999999999</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1881.42</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1893.4949999999999</v>
+      </c>
+      <c r="O5" s="7">
+        <v>9138.8960000000006</v>
+      </c>
+      <c r="P5" s="3">
+        <v>10197.933999999999</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>11699.597</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9">
+        <f>(C5-C4)/C5</f>
+        <v>-3.1000725213043614</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:Q6" si="0">(D5-D4)/D5</f>
+        <v>-1.6721814049368362</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.59262480298377551</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>-272.2481966524266</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>-15.302498010408854</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="0"/>
+        <v>-7.8951960310133487</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.8941608553917381E-2</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.5252750068320254E-3</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" si="0"/>
+        <v>9.106244477597095E-3</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.6248498726321552</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.6853211935665611</v>
+      </c>
+      <c r="N6" s="10">
+        <f t="shared" si="0"/>
+        <v>-2.7025933525042318</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.24866428067460222</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.13996619315245618</v>
+      </c>
+      <c r="Q6" s="10">
+        <f t="shared" si="0"/>
+        <v>-1.5516004525626043E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>4172.3649999999998</v>
-      </c>
-      <c r="E3" s="5">
-        <v>4499.3950000000004</v>
-      </c>
-      <c r="F3" s="5">
-        <v>4790.6170000000002</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1017.6319999999999</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1683.7909999999999</v>
-      </c>
-      <c r="F4" s="5">
-        <v>3008.0010000000002</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11">
-        <f>D3/D4</f>
-        <v>4.1000725213043614</v>
-      </c>
-      <c r="E5" s="12">
-        <f>E3/E4</f>
-        <v>2.6721814049368362</v>
-      </c>
-      <c r="F5" s="12">
-        <f>F3/F4</f>
-        <v>1.5926248029837755</v>
-      </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="C7" s="7">
+        <v>1018.025</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1055.1690000000001</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1114.8420000000001</v>
+      </c>
+      <c r="F7" s="7">
+        <v>66.483000000000004</v>
+      </c>
+      <c r="G7" s="3">
+        <v>74.271000000000001</v>
+      </c>
+      <c r="H7" s="8">
+        <v>81.192999999999998</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3046.3719999999998</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3451.7190000000001</v>
+      </c>
+      <c r="K7" s="8">
+        <v>3684.587</v>
+      </c>
+      <c r="L7" s="7">
+        <v>7477.6790000000001</v>
+      </c>
+      <c r="M7" s="3">
+        <v>7627.21</v>
+      </c>
+      <c r="N7" s="8">
+        <v>7747.7449999999999</v>
+      </c>
+      <c r="O7" s="7">
+        <v>11269.596</v>
+      </c>
+      <c r="P7" s="3">
+        <v>11298.977000000001</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>11351.463</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9">
+        <f>(C7-C5)/C7</f>
+        <v>3.8604160015719564E-4</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" ref="D8:Q8" si="1">(D7-D5)/D7</f>
+        <v>-0.59575480325900376</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.6981410818752791</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.78522329016440295</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.7032893053816425</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="1"/>
+        <v>-11.554074858670083</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="1"/>
+        <v>-2.3851023446906687</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.1072283114587256</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.9920349282022656</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.74968917494318765</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.75332788791707583</v>
+      </c>
+      <c r="N8" s="10">
+        <f t="shared" si="1"/>
+        <v>0.7556069540233965</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.1890662273962615</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" si="1"/>
+        <v>9.7446255532691275E-2</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="1"/>
+        <v>-3.066864597100832E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3901.7109999999998</v>
-      </c>
-      <c r="E6" s="5">
-        <v>5694.7560000000003</v>
-      </c>
-      <c r="F6" s="5">
-        <v>9066.9</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5">
-        <v>14.279</v>
-      </c>
-      <c r="E7" s="5">
-        <v>349.31799999999998</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1019.303</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="11">
-        <f>D6/D7</f>
-        <v>273.2481966524266</v>
-      </c>
-      <c r="E8" s="11">
-        <f>E6/E7</f>
-        <v>16.302498010408854</v>
-      </c>
-      <c r="F8" s="11">
-        <f>F6/F7</f>
-        <v>8.8951960310133487</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="7">
+        <v>1030.556</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1054.3040000000001</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1082.2739999999999</v>
+      </c>
+      <c r="F9" s="7">
+        <v>61.924999999999997</v>
+      </c>
+      <c r="G9" s="3">
+        <v>76.394999999999996</v>
+      </c>
+      <c r="H9" s="8">
+        <v>96.885000000000005</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2978.6109999999999</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3436.9749999999999</v>
+      </c>
+      <c r="K9" s="8">
+        <v>3696.509</v>
+      </c>
+      <c r="L9" s="7">
+        <v>7423.2049999999999</v>
+      </c>
+      <c r="M9" s="3">
+        <v>7508.2110000000002</v>
+      </c>
+      <c r="N9" s="8">
+        <v>7571.25</v>
+      </c>
+      <c r="O9" s="7">
+        <v>11811.066999999999</v>
+      </c>
+      <c r="P9" s="3">
+        <v>12549.985000000001</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>14005.17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <f>(C9-C7)/C9</f>
+        <v>1.2159455672472008E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" ref="D10:Q10" si="2">(D9-D7)/D9</f>
+        <v>-8.2044647464109884E-4</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="2"/>
+        <v>-3.0092194767683798E-2</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="2"/>
+        <v>-7.3605167541380814E-2</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="2"/>
+        <v>2.7802866679756469E-2</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="2"/>
+        <v>0.16196521649378134</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="2"/>
+        <v>-2.2749194171377187E-2</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="2"/>
+        <v>-4.2898188086908234E-3</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" si="2"/>
+        <v>3.2252051868398063E-3</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="2"/>
+        <v>-7.3383397063667456E-3</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.5849181649263692E-2</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="2"/>
+        <v>-2.3311210170051166E-2</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" si="2"/>
+        <v>4.5844376295553955E-2</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="2"/>
+        <v>9.9682031492467904E-2</v>
+      </c>
+      <c r="Q10" s="10">
+        <f t="shared" si="2"/>
+        <v>0.18948052754804121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5">
-        <v>10610.735000000001</v>
-      </c>
-      <c r="E9" s="5">
-        <v>10741.638000000001</v>
-      </c>
-      <c r="F9" s="5">
-        <v>10924.022000000001</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5">
-        <v>10312.281000000001</v>
-      </c>
-      <c r="E10" s="5">
-        <v>10725.279</v>
-      </c>
-      <c r="F10" s="5">
-        <v>11024.413</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="11">
-        <f>D9/D10</f>
-        <v>1.0289416085539174</v>
-      </c>
-      <c r="E11" s="11">
-        <f t="shared" ref="E11:F11" si="0">E9/E10</f>
-        <v>1.001525275006832</v>
-      </c>
-      <c r="F11" s="11">
-        <f t="shared" si="0"/>
-        <v>0.99089375552240289</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="C11" s="7">
+        <v>1047.2049999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1501.8969999999999</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2403.7669999999998</v>
+      </c>
+      <c r="F11" s="7">
+        <v>79.17</v>
+      </c>
+      <c r="G11" s="3">
+        <v>293.95</v>
+      </c>
+      <c r="H11" s="8">
+        <v>721.16800000000001</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2995.2860000000001</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3440.915</v>
+      </c>
+      <c r="K11" s="8">
+        <v>4312.1450000000004</v>
+      </c>
+      <c r="L11" s="7">
+        <v>8127.7629999999999</v>
+      </c>
+      <c r="M11" s="3">
+        <v>8784.4339999999993</v>
+      </c>
+      <c r="N11" s="8">
+        <v>9272.1679999999997</v>
+      </c>
+      <c r="O11" s="7">
+        <v>10795.152</v>
+      </c>
+      <c r="P11" s="3">
+        <v>11528.441000000001</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>12938.73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="5">
-        <v>6784.7910000000002</v>
-      </c>
-      <c r="E12" s="5">
-        <v>6933.6369999999997</v>
-      </c>
-      <c r="F12" s="5">
-        <v>7010.8419999999996</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1871.7439999999999</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1881.42</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1893.4949999999999</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="11">
-        <f>D12/D13</f>
-        <v>3.6248498726321552</v>
-      </c>
-      <c r="E14" s="11">
-        <f t="shared" ref="E14:F14" si="1">E12/E13</f>
-        <v>3.6853211935665611</v>
-      </c>
-      <c r="F14" s="11">
-        <f t="shared" si="1"/>
-        <v>3.7025933525042318</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="5">
-        <v>11411.413</v>
-      </c>
-      <c r="E15" s="5">
-        <v>11625.3</v>
-      </c>
-      <c r="F15" s="5">
-        <v>11881.128000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="5">
-        <v>9138.8960000000006</v>
-      </c>
-      <c r="E16" s="5">
-        <v>10197.933999999999</v>
-      </c>
-      <c r="F16" s="5">
-        <v>11699.597</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="12">
-        <f>D15/D16</f>
-        <v>1.2486642806746022</v>
-      </c>
-      <c r="E17" s="12">
-        <f t="shared" ref="E17:F17" si="2">E15/E16</f>
-        <v>1.1399661931524563</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="2"/>
-        <v>1.015516004525626</v>
-      </c>
+      <c r="C12" s="11">
+        <f>(C11-C9)/C11</f>
+        <v>1.5898510797790203E-2</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" ref="D12:Q12" si="3">(D11-D9)/D11</f>
+        <v>0.29801843934703903</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="3"/>
+        <v>0.54975919047062383</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="3"/>
+        <v>0.21782240747757994</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="3"/>
+        <v>0.74010886205136939</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="3"/>
+        <v>0.86565543673596168</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="3"/>
+        <v>5.5670810733933858E-3</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="3"/>
+        <v>1.1450442687482994E-3</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" si="3"/>
+        <v>0.14276792640321703</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="3"/>
+        <v>8.6685352414926475E-2</v>
+      </c>
+      <c r="M12" s="12">
+        <f t="shared" si="3"/>
+        <v>0.14528232553173023</v>
+      </c>
+      <c r="N12" s="13">
+        <f t="shared" si="3"/>
+        <v>0.18344339748805238</v>
+      </c>
+      <c r="O12" s="11">
+        <f t="shared" si="3"/>
+        <v>-9.4108447940334614E-2</v>
+      </c>
+      <c r="P12" s="12">
+        <f t="shared" si="3"/>
+        <v>-8.8610767058616147E-2</v>
+      </c>
+      <c r="Q12" s="13">
+        <f t="shared" si="3"/>
+        <v>-8.2422308835565825E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
+  <mergeCells count="5">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/queries/execution_reports/Сводная таблица.xlsx
+++ b/queries/execution_reports/Сводная таблица.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\db_kinopoisk\queries\execution_reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maksi\db-project\queries\execution_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B802A0-B7ED-4461-BB4A-EB2AAFDF1B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEEFAC1-918F-4A85-99E2-7EEC7ED1420E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2BB7769B-1ACA-444F-9A3F-4C6D44EF974F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2BB7769B-1ACA-444F-9A3F-4C6D44EF974F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -359,19 +359,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -381,6 +372,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -399,6 +399,4326 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>query 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$14:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4499.3950000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1683.7909999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1055.1690000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1054.3040000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1501.8969999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0608-4D34-A079-5040F3B6E039}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1483949040"/>
+        <c:axId val="1483947600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1483949040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1483947600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1483947600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1483949040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>query 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$14:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5694.7560000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>349.31799999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.271000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.394999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D1B-4D60-A064-90BD977A8AF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1483946640"/>
+        <c:axId val="1483948080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1483946640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1483948080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1483948080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1483946640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>query 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$G$14:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10741.638000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10725.279</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3451.7190000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3436.9749999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3440.915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D17-4A13-AF6A-1226715DBBB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1487704752"/>
+        <c:axId val="1487702352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1487704752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1487702352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1487702352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1487704752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>query 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$14:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6933.6369999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1881.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7627.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7508.2110000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8784.4339999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE58-4D1B-B412-C8439C0EC0F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1487698032"/>
+        <c:axId val="1487697072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1487698032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1487697072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1487697072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1487698032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>query 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$K$14:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11625.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10197.933999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11298.977000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12549.985000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11528.441000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-061B-4305-B4D3-B3083B147640}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1265757983"/>
+        <c:axId val="1265758463"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1265757983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1265758463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1265758463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1265757983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1074420</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E062C27-C5E6-4289-643E-CB1962591005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0AB101C-6D6D-4C90-84EE-C67811F36045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1043940</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{602BEBE2-D8C2-4586-F4D3-EC331D233C9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA20480-0439-C78A-6AC4-803070E5992B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1082040</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DA3F88-29AF-ABB7-5A30-0D52ADB9A409}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -718,49 +5038,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0E6A88-D782-4348-8945-FC31222C570E}">
-  <dimension ref="B1:Q20"/>
+  <dimension ref="B1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="17"/>
-      <c r="C2" s="14" t="s">
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="14" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="14" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="14" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="14" t="s">
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="16"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
     </row>
-    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18"/>
+    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="15"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -807,8 +5127,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="7">
@@ -857,8 +5177,8 @@
         <v>11881.128000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7">
@@ -907,8 +5227,8 @@
         <v>11699.597</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="9">
@@ -972,8 +5292,8 @@
         <v>-1.5516004525626043E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7">
@@ -1022,8 +5342,8 @@
         <v>11351.463</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="9">
@@ -1087,8 +5407,8 @@
         <v>-3.066864597100832E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="7">
@@ -1137,8 +5457,8 @@
         <v>14005.17</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="9">
@@ -1202,8 +5522,8 @@
         <v>0.18948052754804121</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="7">
@@ -1252,8 +5572,8 @@
         <v>12938.73</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
+    <row r="12" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="11">
@@ -1317,31 +5637,97 @@
         <v>-8.2422308835565825E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>4499.3950000000004</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5694.7560000000003</v>
+      </c>
       <c r="F14" s="1"/>
+      <c r="G14" s="3">
+        <v>10741.638000000001</v>
+      </c>
+      <c r="I14" s="3">
+        <v>6933.6369999999997</v>
+      </c>
+      <c r="K14" s="3">
+        <v>11625.3</v>
+      </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
+        <v>1683.7909999999999</v>
+      </c>
+      <c r="E15" s="3">
+        <v>349.31799999999998</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="3">
+        <v>10725.279</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1881.42</v>
+      </c>
+      <c r="K15" s="3">
+        <v>10197.933999999999</v>
+      </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
+        <v>1055.1690000000001</v>
+      </c>
+      <c r="E16" s="3">
+        <v>74.271000000000001</v>
+      </c>
       <c r="F16" s="1"/>
+      <c r="G16" s="3">
+        <v>3451.7190000000001</v>
+      </c>
+      <c r="I16" s="3">
+        <v>7627.21</v>
+      </c>
+      <c r="K16" s="3">
+        <v>11298.977000000001</v>
+      </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <v>1054.3040000000001</v>
+      </c>
+      <c r="E17" s="3">
+        <v>76.394999999999996</v>
+      </c>
       <c r="F17" s="1"/>
+      <c r="G17" s="3">
+        <v>3436.9749999999999</v>
+      </c>
+      <c r="I17" s="3">
+        <v>7508.2110000000002</v>
+      </c>
+      <c r="K17" s="3">
+        <v>12549.985000000001</v>
+      </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="1"/>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18" s="3">
+        <v>1501.8969999999999</v>
+      </c>
+      <c r="E18" s="3">
+        <v>293.95</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3440.915</v>
+      </c>
+      <c r="I18" s="3">
+        <v>8784.4339999999993</v>
+      </c>
+      <c r="K18" s="3">
+        <v>11528.441000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1353,5 +5739,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>